--- a/03-요구사항 명세서/04.27 ver0.1 임의의 고객요구사항 (엑셀).xlsx
+++ b/03-요구사항 명세서/04.27 ver0.1 임의의 고객요구사항 (엑셀).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>R1</t>
   </si>
@@ -328,13 +328,173 @@
   <si>
     <t xml:space="preserve"> 공공 클라우드들(AWS, Azure)과 회사내의 데이터베이스간 동기화는 신뢰할 수 있나요? </t>
   </si>
+  <si>
+    <t>---------------- DB 관련 요구사항 -----------------</t>
+  </si>
+  <si>
+    <t>DB권한을 가진 사용자만 접근할 수 있도록 접근제어가 가능한가요?</t>
+  </si>
+  <si>
+    <t>AWSM-13</t>
+  </si>
+  <si>
+    <t>멤버십 회원 정보를 DB에 동기화 시킬 수 있나요?</t>
+  </si>
+  <si>
+    <t>AWSM-14</t>
+  </si>
+  <si>
+    <t>DB에 Data가 안전하게 저장되나요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. SQL injection와 같은 쿼리 공격에 안전한가요?
+2. 모든 사용자가 DB에 접근이 가능한가요? </t>
+  </si>
+  <si>
+    <t>AWSM-15</t>
+  </si>
+  <si>
+    <t>DB에 Data는 어떻게 백업이 되나요?</t>
+  </si>
+  <si>
+    <t>1. 백업 주기가 어떻게 되나요?
+2. 백업 Data를 관리하는 담당자가 있나요?
+3, DB가 손상되었을 때 얼마나 빨리 백업에서 복구 되나요?</t>
+  </si>
+  <si>
+    <t>AWSM-16</t>
+  </si>
+  <si>
+    <t>로그 기록을 DB에 저장해주세요.</t>
+  </si>
+  <si>
+    <t>AWSM-17</t>
+  </si>
+  <si>
+    <t>데이터가 DB에 안전하게 저장 되나요?</t>
+  </si>
+  <si>
+    <t>1. 암호화를 이용하여 DB에 데이터를 저장해주세요</t>
+  </si>
+  <si>
+    <t>AWSM-18</t>
+  </si>
+  <si>
+    <t>이벤트 탐지 자동화 시스템을 무엇으로 할 것인가요</t>
+  </si>
+  <si>
+    <t>1. DB에 이벤트가 발생할 때 자동화 시스템으로 탐지할 수 있나요?</t>
+  </si>
+  <si>
+    <t>---------------- 보안 관련 요구사항 -----------------</t>
+  </si>
+  <si>
+    <t>AWSM-19</t>
+  </si>
+  <si>
+    <t>로그인에 대한 정보를 알 수 있나요?</t>
+  </si>
+  <si>
+    <t>1. 로그인 시도 횟수는 얼마나 되나요?
+2. 로그인 실패시 어떻게 하나요?</t>
+  </si>
+  <si>
+    <t>AWSM-20</t>
+  </si>
+  <si>
+    <t>로그인 방식은 어떻게 되나요?</t>
+  </si>
+  <si>
+    <t>1. 내부 사원 계정들은 VPN통해 서비스 접근하게 할 수 있나요?</t>
+  </si>
+  <si>
+    <t>AWSM-21</t>
+  </si>
+  <si>
+    <t>비정상적인 이벤트를 탐지할 수 있나요?</t>
+  </si>
+  <si>
+    <t>1. 웹공격(SQL Injection
+-Sensitive Data Exposure (민감한 데이터 노출)
+-Broken Access Control (취약한 접근 통제)
+-Cross-Site Scripting (XSS)
+-Insufficient Logging &amp; Monitoring (불충분한 로깅 및 모니터링))
+등을 탐지할 수 있나요?</t>
+  </si>
+  <si>
+    <t>AWSM-22</t>
+  </si>
+  <si>
+    <t>비정상적은 이벤트에 대한 대응을 자동화할 수 있나요?</t>
+  </si>
+  <si>
+    <t>1. 허가되지 않은 지역에서의 접근을 막을 수 있나요?
+2. 허가되지 않은 포트에서의 접근을 막을 수 있나요?</t>
+  </si>
+  <si>
+    <t>AWSM-24</t>
+  </si>
+  <si>
+    <t>로그데이터에 대한 접근제한이 가능한가요?</t>
+  </si>
+  <si>
+    <t>AWSM-25</t>
+  </si>
+  <si>
+    <t>웹 서버가 공격 당했을 경우 피해를 줄일 수 있는 설정이나 정책이 있나요?</t>
+  </si>
+  <si>
+    <t>1. 주기적으로 점검할 수 있나요?
+2. 주기적으로 백업할 수 있나요?
+3. DB 암호화가 이루어지나요?</t>
+  </si>
+  <si>
+    <t>AWSM-26</t>
+  </si>
+  <si>
+    <t>로그 기록을 실시간으로 알림 서비스 받을 수 있나요?</t>
+  </si>
+  <si>
+    <t>1. sns알림 서비스로 받고 싶어요.</t>
+  </si>
+  <si>
+    <t>AWSM-27</t>
+  </si>
+  <si>
+    <t>민감정보에 대한 액세스가 발생할 경우 알림 서비스를 받을 수 있나요?</t>
+  </si>
+  <si>
+    <t>1.SNS알림 서비스로 받을 수 있나요?</t>
+  </si>
+  <si>
+    <t>AWSM-02</t>
+  </si>
+  <si>
+    <t>AWSM-04</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>저축은행 클라우드 마이그레이션</t>
+    </r>
+  </si>
+  <si>
+    <t>비정상적인 이벤트에 대한 대응을 자동화할 수 있나요?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="36">
+  <fonts count="44">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -485,12 +645,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13.0"/>
       <name val="맑은 고딕"/>
       <color theme="1"/>
@@ -533,8 +687,53 @@
       <name val="맑은 고딕"/>
       <color theme="1"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,8 +935,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -1301,6 +1506,1012 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1451,7 +2662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="470">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1743,7 +2954,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1752,7 +2963,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1788,13 +2999,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1809,7 +3020,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1842,7 +3053,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1851,16 +3062,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,10 +3128,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1929,50 +3140,938 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="109" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="110" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="113" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="114" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="110" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="114" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="109" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="113" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="85" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2292,581 +4391,708 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A22" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="2" max="2" width="11.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="32.63000107" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="43.38000107" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="8.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" style="365" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="365" width="11.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="365" width="32.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="365" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="365" width="43.38000107" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="365" width="8.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="16384" style="365" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.000000"/>
-    <row r="2" ht="15.000000"/>
-    <row r="3" spans="2:13" ht="15.000000">
-      <c r="B3" s="3" t="s">
+    <row r="1" ht="15.000000" customHeight="1"/>
+    <row r="2" ht="15.000000" customHeight="1"/>
+    <row r="3" spans="2:13" ht="17.250000">
+      <c r="B3" s="366" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="381" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
+      <c r="D3" s="393"/>
+      <c r="E3" s="393"/>
+      <c r="F3" s="393"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="393"/>
+      <c r="I3" s="393"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="393"/>
+      <c r="L3" s="393"/>
+      <c r="M3" s="427"/>
     </row>
     <row r="4" spans="2:13" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="29" t="s">
+      <c r="C4" s="382" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="394"/>
+      <c r="E4" s="405"/>
+      <c r="F4" s="414" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="417" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
+      <c r="H4" s="421"/>
+      <c r="I4" s="421"/>
+      <c r="J4" s="421"/>
+      <c r="K4" s="421"/>
+      <c r="L4" s="421"/>
+      <c r="M4" s="428"/>
     </row>
     <row r="5" spans="2:13" customHeight="1">
-      <c r="B5" s="15"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29" t="s">
+      <c r="B5" s="368"/>
+      <c r="C5" s="383"/>
+      <c r="D5" s="395"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="414" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
+      <c r="G5" s="418"/>
+      <c r="H5" s="422"/>
+      <c r="I5" s="422"/>
+      <c r="J5" s="422"/>
+      <c r="K5" s="422"/>
+      <c r="L5" s="422"/>
+      <c r="M5" s="429"/>
     </row>
-    <row r="6" spans="2:13" ht="15.750000">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="2:13" ht="17.250000">
+      <c r="B6" s="369" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="384" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="39" t="s">
+      <c r="D6" s="396"/>
+      <c r="E6" s="407"/>
+      <c r="F6" s="415" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="419" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="51" t="s">
+      <c r="H6" s="423"/>
+      <c r="I6" s="424"/>
+      <c r="J6" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="54">
+      <c r="K6" s="426"/>
+      <c r="L6" s="384">
         <v>0.1</v>
       </c>
-      <c r="M6" s="55"/>
+      <c r="M6" s="430"/>
     </row>
     <row r="7" spans="2:13" ht="30.750000">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="370" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="397" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="397" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="385" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="397" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="385" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="397" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="67" t="s">
+      <c r="J7" s="397"/>
+      <c r="K7" s="397" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="68"/>
-      <c r="M7" s="73" t="s">
+      <c r="L7" s="397"/>
+      <c r="M7" s="431" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="27.750000">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62" t="s">
+      <c r="B8" s="371"/>
+      <c r="C8" s="386"/>
+      <c r="D8" s="398"/>
+      <c r="E8" s="398"/>
+      <c r="F8" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="74"/>
+      <c r="G8" s="398"/>
+      <c r="H8" s="386"/>
+      <c r="I8" s="398"/>
+      <c r="J8" s="398"/>
+      <c r="K8" s="398"/>
+      <c r="L8" s="398"/>
+      <c r="M8" s="432"/>
     </row>
     <row r="9" spans="2:13" ht="56.250000">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="378" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="166" t="s">
+      <c r="C9" s="387" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="167"/>
-      <c r="E9" s="168" t="s">
+      <c r="D9" s="399"/>
+      <c r="E9" s="408" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="169"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="172"/>
+      <c r="F9" s="399"/>
+      <c r="G9" s="387"/>
+      <c r="H9" s="399"/>
+      <c r="I9" s="387"/>
+      <c r="J9" s="387"/>
+      <c r="K9" s="387"/>
+      <c r="L9" s="387"/>
+      <c r="M9" s="433"/>
     </row>
-    <row r="10" spans="2:13" ht="27.000000">
-      <c r="B10" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="166" t="s">
+    <row r="10" spans="2:13" ht="22.500000">
+      <c r="B10" s="378" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="387" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="167"/>
-      <c r="E10" s="168" t="s">
+      <c r="D10" s="399"/>
+      <c r="E10" s="408" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="172"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="387"/>
+      <c r="H10" s="399"/>
+      <c r="I10" s="387"/>
+      <c r="J10" s="387"/>
+      <c r="K10" s="387"/>
+      <c r="L10" s="387"/>
+      <c r="M10" s="433"/>
     </row>
     <row r="11" spans="2:13" ht="33.750000">
-      <c r="B11" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="166" t="s">
+      <c r="B11" s="378" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="387" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="167"/>
-      <c r="E11" s="168" t="s">
+      <c r="D11" s="399"/>
+      <c r="E11" s="408" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="169"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="172"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="387"/>
+      <c r="H11" s="399"/>
+      <c r="I11" s="387"/>
+      <c r="J11" s="387"/>
+      <c r="K11" s="387"/>
+      <c r="L11" s="387"/>
+      <c r="M11" s="433"/>
     </row>
     <row r="12" spans="2:13" ht="33.750000">
-      <c r="B12" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="166" t="s">
+      <c r="B12" s="378" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="387" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="167"/>
-      <c r="E12" s="173" t="s">
+      <c r="D12" s="399"/>
+      <c r="E12" s="409" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="169"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="172"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="387"/>
+      <c r="H12" s="399"/>
+      <c r="I12" s="387"/>
+      <c r="J12" s="387"/>
+      <c r="K12" s="387"/>
+      <c r="L12" s="387"/>
+      <c r="M12" s="433"/>
     </row>
     <row r="13" spans="2:13" ht="33.750000">
-      <c r="B13" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="166" t="s">
+      <c r="B13" s="378" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="387" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="167"/>
-      <c r="E13" s="173" t="s">
+      <c r="D13" s="399"/>
+      <c r="E13" s="409" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="169"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="172"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="387"/>
+      <c r="H13" s="399"/>
+      <c r="I13" s="387"/>
+      <c r="J13" s="387"/>
+      <c r="K13" s="387"/>
+      <c r="L13" s="387"/>
+      <c r="M13" s="433"/>
     </row>
-    <row r="14" spans="2:13" ht="33.750000">
-      <c r="B14" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="166" t="s">
+    <row r="14" spans="2:13" ht="22.500000">
+      <c r="B14" s="378" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="387" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="167"/>
-      <c r="E14" s="168" t="s">
+      <c r="D14" s="399"/>
+      <c r="E14" s="408" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="169"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="172"/>
+      <c r="F14" s="399"/>
+      <c r="G14" s="387"/>
+      <c r="H14" s="399"/>
+      <c r="I14" s="387"/>
+      <c r="J14" s="387"/>
+      <c r="K14" s="387"/>
+      <c r="L14" s="387"/>
+      <c r="M14" s="433"/>
     </row>
-    <row r="15" spans="2:13" ht="67.500000">
-      <c r="B15" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="166" t="s">
+    <row r="15" spans="2:13" ht="56.250000">
+      <c r="B15" s="378" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="387" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="167"/>
-      <c r="E15" s="168" t="s">
+      <c r="D15" s="399"/>
+      <c r="E15" s="408" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="169"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="172"/>
+      <c r="F15" s="399"/>
+      <c r="G15" s="387"/>
+      <c r="H15" s="399"/>
+      <c r="I15" s="387"/>
+      <c r="J15" s="387"/>
+      <c r="K15" s="387"/>
+      <c r="L15" s="387"/>
+      <c r="M15" s="433"/>
     </row>
-    <row r="16" spans="2:13" ht="27.000000">
-      <c r="B16" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="166" t="s">
+    <row r="16" spans="2:13" ht="22.500000">
+      <c r="B16" s="378" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="387" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="168" t="s">
+      <c r="D16" s="399"/>
+      <c r="E16" s="408" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="169"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="172"/>
+      <c r="F16" s="399"/>
+      <c r="G16" s="387"/>
+      <c r="H16" s="399"/>
+      <c r="I16" s="387"/>
+      <c r="J16" s="387"/>
+      <c r="K16" s="387"/>
+      <c r="L16" s="387"/>
+      <c r="M16" s="433"/>
     </row>
-    <row r="17" spans="2:13" ht="27.000000">
-      <c r="B17" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="166" t="s">
+    <row r="17" spans="2:13" ht="22.500000">
+      <c r="B17" s="378" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="387" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="173" t="s">
+      <c r="D17" s="399"/>
+      <c r="E17" s="409" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="172"/>
+      <c r="F17" s="399"/>
+      <c r="G17" s="387"/>
+      <c r="H17" s="399"/>
+      <c r="I17" s="387"/>
+      <c r="J17" s="387"/>
+      <c r="K17" s="387"/>
+      <c r="L17" s="387"/>
+      <c r="M17" s="433"/>
     </row>
-    <row r="18" spans="2:13" ht="27.000000">
-      <c r="B18" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="166" t="s">
+    <row r="18" spans="2:13" ht="22.500000">
+      <c r="B18" s="378" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="387" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="173" t="s">
+      <c r="D18" s="399"/>
+      <c r="E18" s="409" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="172"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="387"/>
+      <c r="H18" s="399"/>
+      <c r="I18" s="387"/>
+      <c r="J18" s="387"/>
+      <c r="K18" s="387"/>
+      <c r="L18" s="387"/>
+      <c r="M18" s="433"/>
     </row>
-    <row r="19" spans="2:13" ht="27.000000">
-      <c r="B19" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="166" t="s">
+    <row r="19" spans="2:13" ht="22.500000">
+      <c r="B19" s="378" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="388" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="167"/>
-      <c r="E19" s="173" t="s">
+      <c r="D19" s="400"/>
+      <c r="E19" s="410" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="169"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="172"/>
+      <c r="F19" s="400"/>
+      <c r="G19" s="388"/>
+      <c r="H19" s="400"/>
+      <c r="I19" s="388"/>
+      <c r="J19" s="388"/>
+      <c r="K19" s="388"/>
+      <c r="L19" s="388"/>
+      <c r="M19" s="434"/>
     </row>
-    <row r="20" spans="2:13" ht="27.000000">
-      <c r="B20" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="172"/>
+    <row r="20" spans="2:13">
+      <c r="B20" s="379"/>
+      <c r="C20" s="453" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="454"/>
+      <c r="E20" s="455"/>
+      <c r="F20" s="454"/>
+      <c r="G20" s="456"/>
+      <c r="H20" s="454"/>
+      <c r="I20" s="456"/>
+      <c r="J20" s="456"/>
+      <c r="K20" s="456"/>
+      <c r="L20" s="456"/>
+      <c r="M20" s="457"/>
     </row>
-    <row r="21" spans="2:13" ht="27.000000">
-      <c r="B21" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="172"/>
+    <row r="21" spans="2:13" ht="22.500000">
+      <c r="B21" s="378" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="458" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="459"/>
+      <c r="E21" s="460" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="459"/>
+      <c r="G21" s="461"/>
+      <c r="H21" s="459"/>
+      <c r="I21" s="461"/>
+      <c r="J21" s="461"/>
+      <c r="K21" s="461"/>
+      <c r="L21" s="461"/>
+      <c r="M21" s="462"/>
     </row>
-    <row r="22" spans="2:13" ht="27.000000">
-      <c r="B22" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="172"/>
+    <row r="22" spans="2:13">
+      <c r="B22" s="376" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="458" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="459"/>
+      <c r="E22" s="460" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="459"/>
+      <c r="G22" s="461"/>
+      <c r="H22" s="459"/>
+      <c r="I22" s="461"/>
+      <c r="J22" s="461"/>
+      <c r="K22" s="461"/>
+      <c r="L22" s="461"/>
+      <c r="M22" s="462"/>
     </row>
-    <row r="23" spans="2:13" ht="27.000000">
-      <c r="B23" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="172"/>
+    <row r="23" spans="2:13" ht="22.500000">
+      <c r="B23" s="376" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="458" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="459"/>
+      <c r="E23" s="460" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="459"/>
+      <c r="G23" s="461"/>
+      <c r="H23" s="459"/>
+      <c r="I23" s="461"/>
+      <c r="J23" s="461"/>
+      <c r="K23" s="461"/>
+      <c r="L23" s="461"/>
+      <c r="M23" s="462"/>
     </row>
-    <row r="24" spans="2:13" ht="27.000000">
-      <c r="B24" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="172"/>
+    <row r="24" spans="2:13" ht="33.750000">
+      <c r="B24" s="376" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="458" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="459"/>
+      <c r="E24" s="460" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="459"/>
+      <c r="G24" s="461"/>
+      <c r="H24" s="459"/>
+      <c r="I24" s="461"/>
+      <c r="J24" s="461"/>
+      <c r="K24" s="461"/>
+      <c r="L24" s="461"/>
+      <c r="M24" s="462"/>
     </row>
-    <row r="25" spans="2:13" ht="27.000000">
-      <c r="B25" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="172"/>
+    <row r="25" spans="2:13">
+      <c r="B25" s="376" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="458" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="459"/>
+      <c r="E25" s="460" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="459"/>
+      <c r="G25" s="461"/>
+      <c r="H25" s="459"/>
+      <c r="I25" s="461"/>
+      <c r="J25" s="461"/>
+      <c r="K25" s="461"/>
+      <c r="L25" s="461"/>
+      <c r="M25" s="462"/>
     </row>
-    <row r="26" spans="2:13" ht="27.000000">
-      <c r="B26" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="172"/>
+    <row r="26" spans="2:13">
+      <c r="B26" s="376" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="458" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="459"/>
+      <c r="E26" s="460" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="459"/>
+      <c r="G26" s="461"/>
+      <c r="H26" s="459"/>
+      <c r="I26" s="461"/>
+      <c r="J26" s="461"/>
+      <c r="K26" s="461"/>
+      <c r="L26" s="461"/>
+      <c r="M26" s="462"/>
     </row>
-    <row r="27" spans="2:13" ht="27.000000">
-      <c r="B27" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="172"/>
+    <row r="27" spans="2:13">
+      <c r="B27" s="376" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="458" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="459"/>
+      <c r="E27" s="460" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="459"/>
+      <c r="G27" s="461"/>
+      <c r="H27" s="459"/>
+      <c r="I27" s="461"/>
+      <c r="J27" s="461"/>
+      <c r="K27" s="461"/>
+      <c r="L27" s="461"/>
+      <c r="M27" s="462"/>
     </row>
-    <row r="28" spans="2:13" ht="27.000000">
-      <c r="B28" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="172"/>
+    <row r="28" spans="2:13">
+      <c r="B28" s="376"/>
+      <c r="C28" s="458" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="459"/>
+      <c r="E28" s="463"/>
+      <c r="F28" s="459"/>
+      <c r="G28" s="461"/>
+      <c r="H28" s="459"/>
+      <c r="I28" s="461"/>
+      <c r="J28" s="461"/>
+      <c r="K28" s="461"/>
+      <c r="L28" s="461"/>
+      <c r="M28" s="462"/>
     </row>
-    <row r="29" spans="2:13" ht="27.000000">
-      <c r="B29" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="172"/>
+    <row r="29" spans="2:13" ht="22.500000">
+      <c r="B29" s="376" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="458" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="459"/>
+      <c r="E29" s="460" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="459"/>
+      <c r="G29" s="461"/>
+      <c r="H29" s="459"/>
+      <c r="I29" s="461"/>
+      <c r="J29" s="461"/>
+      <c r="K29" s="461"/>
+      <c r="L29" s="461"/>
+      <c r="M29" s="462"/>
     </row>
-    <row r="30" spans="2:13" ht="27.000000">
-      <c r="B30" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="166"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="172"/>
+    <row r="30" spans="2:13">
+      <c r="B30" s="380" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="458" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="459"/>
+      <c r="E30" s="460" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="459"/>
+      <c r="G30" s="461"/>
+      <c r="H30" s="459"/>
+      <c r="I30" s="461"/>
+      <c r="J30" s="461"/>
+      <c r="K30" s="461"/>
+      <c r="L30" s="461"/>
+      <c r="M30" s="462"/>
     </row>
-    <row r="31" spans="2:13" ht="27.000000">
-      <c r="B31" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="166"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="172"/>
+    <row r="31" spans="2:13" ht="67.500000">
+      <c r="B31" s="376" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="458" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="459"/>
+      <c r="E31" s="460" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="459"/>
+      <c r="G31" s="461"/>
+      <c r="H31" s="459"/>
+      <c r="I31" s="461"/>
+      <c r="J31" s="461"/>
+      <c r="K31" s="461"/>
+      <c r="L31" s="461"/>
+      <c r="M31" s="462"/>
     </row>
-    <row r="32" spans="2:13" ht="27.000000">
-      <c r="B32" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="171"/>
-      <c r="M32" s="172"/>
+    <row r="32" spans="2:13" ht="22.500000">
+      <c r="B32" s="376" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="464" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="459"/>
+      <c r="E32" s="460" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="459"/>
+      <c r="G32" s="461"/>
+      <c r="H32" s="459"/>
+      <c r="I32" s="461"/>
+      <c r="J32" s="461"/>
+      <c r="K32" s="461"/>
+      <c r="L32" s="461"/>
+      <c r="M32" s="462"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="376" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="464" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="461"/>
+      <c r="E33" s="469" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="461"/>
+      <c r="G33" s="461"/>
+      <c r="H33" s="461"/>
+      <c r="I33" s="461"/>
+      <c r="J33" s="461"/>
+      <c r="K33" s="461"/>
+      <c r="L33" s="461"/>
+      <c r="M33" s="465"/>
+    </row>
+    <row r="34" spans="2:13" ht="33.750000">
+      <c r="B34" s="376" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="464" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="461"/>
+      <c r="E34" s="464" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="461"/>
+      <c r="G34" s="461"/>
+      <c r="H34" s="461"/>
+      <c r="I34" s="461"/>
+      <c r="J34" s="461"/>
+      <c r="K34" s="461"/>
+      <c r="L34" s="461"/>
+      <c r="M34" s="465"/>
+    </row>
+    <row r="35" spans="2:13" ht="22.500000">
+      <c r="B35" s="376" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="464" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="461"/>
+      <c r="E35" s="464" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="461"/>
+      <c r="G35" s="461"/>
+      <c r="H35" s="461"/>
+      <c r="I35" s="461"/>
+      <c r="J35" s="461"/>
+      <c r="K35" s="461"/>
+      <c r="L35" s="461"/>
+      <c r="M35" s="465"/>
+    </row>
+    <row r="36" spans="2:13" ht="22.500000">
+      <c r="B36" s="377" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="466" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="467"/>
+      <c r="E36" s="466" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="467"/>
+      <c r="G36" s="467"/>
+      <c r="H36" s="467"/>
+      <c r="I36" s="467"/>
+      <c r="J36" s="467"/>
+      <c r="K36" s="467"/>
+      <c r="L36" s="467"/>
+      <c r="M36" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="17">
